--- a/Mari_script_2/Отказы.xlsx
+++ b/Mari_script_2/Отказы.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Номер абонента</t>
   </si>
   <si>
+    <t>Регион</t>
+  </si>
+  <si>
     <t>Номер и название компании</t>
   </si>
   <si>
@@ -28,22 +31,19 @@
     <t>Опция</t>
   </si>
   <si>
-    <t>+795242101251</t>
-  </si>
-  <si>
-    <t>Саратов New</t>
+    <t>9046083642</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>TS_265843_Робот_Тарифы_нано_МР_скидка_50_на_12_мес_готов_20220626.</t>
+  </si>
+  <si>
+    <t>2022-06-30 22:06:28.993090</t>
   </si>
   <si>
     <t>Отменить смену ТП (Отказ от предложения (после согласия))</t>
-  </si>
-  <si>
-    <t>+7952213101251</t>
-  </si>
-  <si>
-    <t>+7952213103251</t>
-  </si>
-  <si>
-    <t>+79524123101251</t>
   </si>
 </sst>
 </file>
@@ -375,13 +375,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,285 +394,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
